--- a/Q2.xlsx
+++ b/Q2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,27 +476,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tudor</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bogdan</t>
+          <t>Alexandru</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>16/10/2017</t>
+          <t>28/04/2014</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14/10/2027</t>
+          <t>25/04/2024</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -505,11 +505,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stan</t>
+          <t>Ionescu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,50 +519,50 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17/07/2011</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14/07/2021</t>
+          <t>18/05/2030</t>
         </is>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vasile</t>
+          <t>Tudor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Cristina</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>25/11/2021</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>29/01/2026</t>
+          <t>23/11/2031</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -571,7 +571,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -580,22 +580,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mihai</t>
+          <t>Ion</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D1E</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10/03/2019</t>
+          <t>13/06/2022</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>07/03/2029</t>
+          <t>10/06/2032</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -604,31 +604,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Neagu</t>
+          <t>Popescu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ion</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>06/09/2014</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>03/09/2024</t>
+          <t>05/01/2034</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -637,64 +637,64 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ionescu</t>
+          <t>Popa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ioana</t>
+          <t>Raluca</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>05/06/2022</t>
+          <t>29/05/2014</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02/06/2032</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Stoica</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ion</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>04/05/2013</t>
+          <t>20/11/2023</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02/05/2023</t>
+          <t>17/11/2033</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -703,31 +703,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Stoica</t>
+          <t>Marin</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Ion</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10/02/2017</t>
+          <t>08/09/2020</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08/02/2027</t>
+          <t>06/09/2030</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -736,31 +736,31 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Neagu</t>
+          <t>Popa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mihai</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>19/03/2011</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>16/03/2021</t>
+          <t>20/04/2031</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -769,31 +769,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tudor</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Florin</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19/09/2020</t>
+          <t>08/10/2021</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>17/09/2030</t>
+          <t>06/10/2031</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -802,661 +802,34 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Stoica</t>
+          <t>Neagu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14/03/2016</t>
+          <t>29/12/2016</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>12/03/2026</t>
+          <t>27/12/2026</t>
         </is>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Tudor</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20/02/2015</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>17/02/2025</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Gheorghe</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Ion</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20/05/2016</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>18/05/2026</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Marin</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Raluca</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>C1E</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21/12/2020</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>19/12/2030</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Dumitrescu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Bogdan</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>26/04/2018</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>23/04/2028</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Mihai</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Andrei</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>05/10/2013</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>03/10/2023</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Gheorghe</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>25/09/2021</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>23/09/2031</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Ionescu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Florin</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>27/02/2012</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>24/02/2022</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Tudor</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>03/06/2014</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>31/05/2024</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Radu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Ion</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>21/06/2012</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>19/06/2022</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Mihai</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Ioana</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>19/12/2011</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>16/12/2021</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Radu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Laura</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>30/04/2014</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>27/04/2024</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Neagu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Raluca</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>22/04/2013</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>20/04/2023</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Tudor</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Cristina</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>C1E</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>08/09/2015</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>05/09/2025</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Radu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Laura</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>C1E</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>28/12/2018</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>25/12/2028</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Ionescu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Andrei</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>D1E</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>03/10/2017</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>01/10/2027</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Stan</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>D1E</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>08/03/2020</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>06/03/2030</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Popescu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Mihai</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>15/09/2021</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>13/09/2031</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Stan</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Ioana</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>02/06/2014</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>30/05/2024</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Popa</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>D1E</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>03/08/2019</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>31/07/2029</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
         <v>0</v>
       </c>
     </row>
